--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1551526.886966454</v>
+        <v>1496574.997682358</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013168</v>
+        <v>408938.3872013178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7792647.789078891</v>
+        <v>7792647.78907889</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>221.7685724598865</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
@@ -1390,7 +1390,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>78.72133078543905</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.46621523756873</v>
+        <v>67.52310160801476</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
@@ -1514,10 +1514,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.00010435294849</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>73.3534034990644</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>221.7685724598869</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>204.2752321223443</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>3.329915919761022</v>
       </c>
       <c r="D15" t="n">
-        <v>79.75847057122647</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>80.39631948615275</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>158.6718467440168</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>54.95694647166349</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>79.41029545695001</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -1982,16 +1982,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>27.57432817881641</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>73.35340349906438</v>
       </c>
       <c r="V19" t="n">
-        <v>8.916258666856974</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>197.6677046735091</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4096332212677</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>3.173360402271757</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.64783399597502</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.61813689207858</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>55.08125065520352</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>178.0662482474244</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30.29557773010473</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>79.99132866338525</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>76.53519509961431</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>284.1431530914001</v>
       </c>
       <c r="Y26" t="n">
-        <v>226.9496388340153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>90.22595344863024</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>115.4477893784547</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
@@ -2693,7 +2693,7 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.52012824943817</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>231.1494008325655</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>173.9558865751806</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>55.42596860897758</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>117.6320838744861</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>76.53519509961433</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>3.530993034751896</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>61.8289547523643</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>162.1104452491708</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>209.2395777570508</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.67880083738547</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>73.35340349906457</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>201.4219825638601</v>
       </c>
       <c r="G35" t="n">
-        <v>246.8669047879844</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>158.2594667749177</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>93.55157885292893</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>158.6107100818746</v>
+        <v>76.53519509961431</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>90.24152158232648</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>191.1413358872655</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>67.89076293385916</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>121.412397492597</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>76.53519509961433</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>237.1457211825208</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>55.08125065520306</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>161.5773014157431</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>90.22595344863024</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>80.39631948615266</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>145.9444790370967</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>198.9799304689885</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>115.1070645654649</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.7932587172595</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -4124,7 +4124,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>131.0804113283487</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M11" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5062,31 +5062,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U11" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V11" t="n">
-        <v>1610.227176505315</v>
+        <v>871.0801527505586</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.227176505315</v>
+        <v>791.5636570076908</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>477.3251905852854</v>
+        <v>344.9599739535365</v>
       </c>
       <c r="C12" t="n">
-        <v>477.3251905852854</v>
+        <v>344.9599739535365</v>
       </c>
       <c r="D12" t="n">
-        <v>477.3251905852854</v>
+        <v>184.1798577145682</v>
       </c>
       <c r="E12" t="n">
-        <v>477.3251905852854</v>
+        <v>184.1798577145682</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>679.5863020207051</v>
       </c>
       <c r="N12" t="n">
         <v>1082.820066520716</v>
@@ -5141,31 +5141,31 @@
         <v>1625.19346494006</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U12" t="n">
-        <v>1209.311472334664</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="V12" t="n">
-        <v>966.2317542382978</v>
+        <v>839.9992362879175</v>
       </c>
       <c r="W12" t="n">
-        <v>696.8331849685891</v>
+        <v>570.6006670182088</v>
       </c>
       <c r="X12" t="n">
-        <v>477.3251905852854</v>
+        <v>570.6006670182088</v>
       </c>
       <c r="Y12" t="n">
-        <v>477.3251905852854</v>
+        <v>344.9599739535365</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514567</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.227176505315</v>
+        <v>240.6532711598435</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.227176505315</v>
+        <v>240.6532711598435</v>
       </c>
       <c r="D14" t="n">
-        <v>1610.227176505315</v>
+        <v>240.6532711598435</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>240.6532711598435</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>240.6532711598435</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T14" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1610.227176505315</v>
+        <v>942.6401640759904</v>
       </c>
       <c r="V14" t="n">
-        <v>1610.227176505315</v>
+        <v>618.5191705313923</v>
       </c>
       <c r="W14" t="n">
-        <v>1610.227176505315</v>
+        <v>618.5191705313923</v>
       </c>
       <c r="X14" t="n">
-        <v>1610.227176505315</v>
+        <v>618.5191705313923</v>
       </c>
       <c r="Y14" t="n">
-        <v>1610.227176505315</v>
+        <v>618.5191705313923</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.291038809589</v>
+        <v>37.67820428854719</v>
       </c>
       <c r="C15" t="n">
-        <v>114.8787645425527</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K15" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944624</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6946924676443</v>
+        <v>395.2338702498406</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207058</v>
+        <v>770.1254798029022</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025987</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062328</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365241</v>
+        <v>482.8268917365232</v>
       </c>
       <c r="X15" t="n">
-        <v>482.8268917365241</v>
+        <v>263.3188973532195</v>
       </c>
       <c r="Y15" t="n">
-        <v>482.8268917365241</v>
+        <v>37.67820428854719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K16" t="n">
         <v>42.23041924514571</v>
@@ -5451,37 +5451,37 @@
         <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V16" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W16" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.6975439683318</v>
+        <v>735.7150632867113</v>
       </c>
       <c r="C17" t="n">
-        <v>221.6975439683318</v>
+        <v>381.9721366390559</v>
       </c>
       <c r="D17" t="n">
         <v>221.6975439683318</v>
@@ -5515,16 +5515,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389724</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>942.6401640759908</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V17" t="n">
-        <v>618.5191705313928</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W17" t="n">
-        <v>277.2096111114262</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="X17" t="n">
-        <v>221.6975439683318</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.6975439683318</v>
+        <v>735.7150632867113</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>235.4660406069408</v>
+        <v>637.9302669363078</v>
       </c>
       <c r="C18" t="n">
-        <v>235.4660406069408</v>
+        <v>448.5179926692715</v>
       </c>
       <c r="D18" t="n">
-        <v>235.4660406069408</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E18" t="n">
-        <v>235.4660406069408</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F18" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L18" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207054</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025982</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062323</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365236</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="X18" t="n">
-        <v>263.31889735322</v>
+        <v>863.5709600009802</v>
       </c>
       <c r="Y18" t="n">
-        <v>235.4660406069408</v>
+        <v>637.9302669363078</v>
       </c>
     </row>
     <row r="19">
@@ -5676,37 +5676,37 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S19" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="T19" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V19" t="n">
         <v>34.31465285444516</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>507.6632696245932</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="C20" t="n">
-        <v>153.9203429769378</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D20" t="n">
-        <v>153.9203429769378</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E20" t="n">
-        <v>153.9203429769378</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F20" t="n">
-        <v>153.9203429769378</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G20" t="n">
-        <v>153.9203429769378</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H20" t="n">
-        <v>153.9203429769378</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K20" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5773,31 +5773,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295157</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="U20" t="n">
-        <v>1195.201146295157</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="V20" t="n">
-        <v>871.080152750559</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="W20" t="n">
-        <v>871.080152750559</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="X20" t="n">
-        <v>507.6632696245932</v>
+        <v>1357.666194286148</v>
       </c>
       <c r="Y20" t="n">
-        <v>507.6632696245932</v>
+        <v>1357.666194286148</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1004.274327065661</v>
+        <v>400.4955455478162</v>
       </c>
       <c r="C21" t="n">
-        <v>814.8620527986247</v>
+        <v>211.0832712807799</v>
       </c>
       <c r="D21" t="n">
-        <v>654.0819365596565</v>
+        <v>211.0832712807799</v>
       </c>
       <c r="E21" t="n">
-        <v>480.5187326810709</v>
+        <v>37.5200674021944</v>
       </c>
       <c r="F21" t="n">
-        <v>320.091016398315</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G21" t="n">
-        <v>170.6219828215549</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H21" t="n">
-        <v>51.13064678977346</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L21" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O21" t="n">
-        <v>1569.578013588512</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S21" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T21" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U21" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="V21" t="n">
-        <v>1627.958867440572</v>
+        <v>1293.578655192436</v>
       </c>
       <c r="W21" t="n">
-        <v>1627.958867440572</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="X21" t="n">
-        <v>1408.450873057269</v>
+        <v>804.6720915394237</v>
       </c>
       <c r="Y21" t="n">
-        <v>1182.810179992596</v>
+        <v>579.0313984747513</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
         <v>42.2304192451457</v>
@@ -5931,31 +5931,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>562.8815436069452</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="C23" t="n">
-        <v>562.8815436069452</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D23" t="n">
-        <v>221.6975439683318</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E23" t="n">
-        <v>221.6975439683318</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602971</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759913</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V23" t="n">
-        <v>618.5191705313932</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W23" t="n">
-        <v>562.8815436069452</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X23" t="n">
-        <v>562.8815436069452</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y23" t="n">
-        <v>562.8815436069452</v>
+        <v>1535.867745502637</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>670.3318926265219</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C24" t="n">
-        <v>480.9196183594856</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>320.1395021205174</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>146.5762982419318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>146.5762982419318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>146.5762982419318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
@@ -6071,13 +6071,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L24" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N24" t="n">
         <v>1173.359244302914</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440573</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440573</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440573</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V24" t="n">
-        <v>1384.879149344207</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W24" t="n">
-        <v>1115.480580074498</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X24" t="n">
-        <v>895.9725856911944</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y24" t="n">
-        <v>670.3318926265219</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1561.838761864066</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1486.49058329396</v>
+        <v>763.2888038067836</v>
       </c>
       <c r="C26" t="n">
-        <v>1132.747656646304</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D26" t="n">
-        <v>791.5636570076908</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E26" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F26" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G26" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J26" t="n">
         <v>79.26440887602973</v>
@@ -6238,7 +6238,7 @@
         <v>856.6460009292778</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6247,31 +6247,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V26" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="W26" t="n">
-        <v>1715.732642722258</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="X26" t="n">
-        <v>1715.732642722258</v>
+        <v>763.2888038067836</v>
       </c>
       <c r="Y26" t="n">
-        <v>1486.49058329396</v>
+        <v>763.2888038067836</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.4519795702333</v>
+        <v>343.2182631532629</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M27" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N27" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O27" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S27" t="n">
-        <v>1536.658373288802</v>
+        <v>1511.344938775466</v>
       </c>
       <c r="T27" t="n">
-        <v>1322.652080056737</v>
+        <v>1297.338645543401</v>
       </c>
       <c r="U27" t="n">
-        <v>1083.078954384284</v>
+        <v>1057.765519870948</v>
       </c>
       <c r="V27" t="n">
-        <v>839.9992362879179</v>
+        <v>1057.765519870948</v>
       </c>
       <c r="W27" t="n">
-        <v>570.6006670182093</v>
+        <v>788.3669506012388</v>
       </c>
       <c r="X27" t="n">
-        <v>351.0926726349056</v>
+        <v>568.8589562179352</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.4519795702333</v>
+        <v>343.2182631532629</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I28" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K28" t="n">
         <v>42.2304192451457</v>
@@ -6414,22 +6414,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1540.019625979651</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="C29" t="n">
-        <v>1540.019625979651</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="D29" t="n">
-        <v>1198.835626341038</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="E29" t="n">
-        <v>1198.835626341038</v>
+        <v>675.0708654530098</v>
       </c>
       <c r="F29" t="n">
-        <v>791.5636570076908</v>
+        <v>267.7988961196628</v>
       </c>
       <c r="G29" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J29" t="n">
         <v>79.26440887602985</v>
@@ -6493,22 +6493,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1540.019625979651</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U29" t="n">
-        <v>1540.019625979651</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V29" t="n">
-        <v>1540.019625979651</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.019625979651</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="X29" t="n">
-        <v>1540.019625979651</v>
+        <v>1050.302089757693</v>
       </c>
       <c r="Y29" t="n">
-        <v>1540.019625979651</v>
+        <v>1050.302089757693</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>223.7269271214814</v>
+        <v>585.0715161325099</v>
       </c>
       <c r="C30" t="n">
-        <v>34.31465285444516</v>
+        <v>529.0856892547548</v>
       </c>
       <c r="D30" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M30" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N30" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T30" t="n">
-        <v>1330.064311265211</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U30" t="n">
-        <v>1090.491185592758</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="V30" t="n">
-        <v>847.4114674963926</v>
+        <v>1258.646631393826</v>
       </c>
       <c r="W30" t="n">
-        <v>847.4114674963926</v>
+        <v>989.2480621241174</v>
       </c>
       <c r="X30" t="n">
-        <v>627.9034731130889</v>
+        <v>989.2480621241174</v>
       </c>
       <c r="Y30" t="n">
-        <v>402.2627800484165</v>
+        <v>763.6073690594451</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K31" t="n">
         <v>42.2304192451457</v>
@@ -6642,31 +6642,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T31" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="V31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1132.747656646304</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.747656646304</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D32" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E32" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F32" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G32" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J32" t="n">
         <v>79.26440887602985</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1712.165983091195</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1515.487399796029</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295157</v>
+        <v>1515.487399796029</v>
       </c>
       <c r="U32" t="n">
-        <v>1132.747656646304</v>
+        <v>1515.487399796029</v>
       </c>
       <c r="V32" t="n">
-        <v>1132.747656646304</v>
+        <v>1515.487399796029</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.747656646304</v>
+        <v>1515.487399796029</v>
       </c>
       <c r="X32" t="n">
-        <v>1132.747656646304</v>
+        <v>1152.070516670063</v>
       </c>
       <c r="Y32" t="n">
-        <v>1132.747656646304</v>
+        <v>765.9234788736494</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>397.2901310000669</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C33" t="n">
-        <v>207.8778567330307</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D33" t="n">
-        <v>207.8778567330307</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K33" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L33" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722258</v>
+        <v>1464.21094294646</v>
       </c>
       <c r="T33" t="n">
-        <v>1501.726349490192</v>
+        <v>1464.21094294646</v>
       </c>
       <c r="U33" t="n">
-        <v>1290.373240644687</v>
+        <v>1224.637817274007</v>
       </c>
       <c r="V33" t="n">
-        <v>1290.373240644687</v>
+        <v>981.5580991776411</v>
       </c>
       <c r="W33" t="n">
-        <v>1020.974671374978</v>
+        <v>712.1595299079324</v>
       </c>
       <c r="X33" t="n">
-        <v>801.4666769916744</v>
+        <v>712.1595299079324</v>
       </c>
       <c r="Y33" t="n">
-        <v>575.825983927002</v>
+        <v>712.1595299079324</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.083501054873</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E34" t="n">
-        <v>1425.976287709191</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W34" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>624.8591623799116</v>
+        <v>578.9552005373617</v>
       </c>
       <c r="C35" t="n">
-        <v>624.8591623799116</v>
+        <v>578.9552005373617</v>
       </c>
       <c r="D35" t="n">
-        <v>283.6751627412982</v>
+        <v>237.7712008987483</v>
       </c>
       <c r="E35" t="n">
-        <v>283.6751627412982</v>
+        <v>237.7712008987483</v>
       </c>
       <c r="F35" t="n">
-        <v>283.6751627412982</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
         <v>34.31465285444516</v>
@@ -6937,16 +6937,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
@@ -6964,25 +6964,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="W35" t="n">
-        <v>1374.423083302291</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="X35" t="n">
-        <v>1011.006200176326</v>
+        <v>578.9552005373617</v>
       </c>
       <c r="Y35" t="n">
-        <v>624.8591623799116</v>
+        <v>578.9552005373617</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>436.2604681053069</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C36" t="n">
-        <v>436.2604681053069</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>436.2604681053069</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
-        <v>276.4024208579153</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M36" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N36" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
@@ -7043,25 +7043,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1413.952574208507</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U36" t="n">
-        <v>1174.379448536054</v>
+        <v>1140.381760479163</v>
       </c>
       <c r="V36" t="n">
-        <v>931.2997304396879</v>
+        <v>897.3020423827976</v>
       </c>
       <c r="W36" t="n">
-        <v>661.9011611699792</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="X36" t="n">
-        <v>661.9011611699792</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="Y36" t="n">
-        <v>436.2604681053069</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="F37" t="n">
-        <v>1575.402458663221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1329.585604925844</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C38" t="n">
-        <v>975.8426782781889</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D38" t="n">
-        <v>634.6586786395756</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E38" t="n">
-        <v>634.6586786395756</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F38" t="n">
-        <v>227.3867093062286</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,25 +7174,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>263.3188973532204</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="C39" t="n">
-        <v>263.3188973532204</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="D39" t="n">
-        <v>263.3188973532204</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="E39" t="n">
-        <v>263.3188973532204</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F39" t="n">
-        <v>102.8911810704645</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
@@ -7256,49 +7256,49 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K39" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M39" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007117</v>
+        <v>1593.0938573762</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775052</v>
+        <v>1593.0938573762</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025987</v>
+        <v>1353.520731703747</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062328</v>
+        <v>1110.441013607381</v>
       </c>
       <c r="W39" t="n">
-        <v>482.8268917365241</v>
+        <v>841.0424443376727</v>
       </c>
       <c r="X39" t="n">
-        <v>263.3188973532204</v>
+        <v>621.5344499543691</v>
       </c>
       <c r="Y39" t="n">
-        <v>263.3188973532204</v>
+        <v>395.8937568896967</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200892</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>627.5987120096974</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="C41" t="n">
-        <v>273.855785362042</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444516</v>
+        <v>277.3351708927793</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444516</v>
+        <v>277.3351708927793</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444516</v>
+        <v>277.3351708927793</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887603044</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193756</v>
+        <v>253.8975067193747</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>942.6401640759908</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.61164917766</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="W41" t="n">
-        <v>1391.61164917766</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="X41" t="n">
-        <v>1391.61164917766</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="Y41" t="n">
-        <v>1005.464611381246</v>
+        <v>618.5191705313928</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.118384851047</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7061105840106</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7493,19 +7493,19 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T42" t="n">
-        <v>1501.726349490193</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U42" t="n">
-        <v>1501.726349490193</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V42" t="n">
-        <v>1501.726349490193</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W42" t="n">
-        <v>1232.327780220484</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X42" t="n">
-        <v>1232.327780220484</v>
+        <v>351.0926726349056</v>
       </c>
       <c r="Y42" t="n">
-        <v>1232.327780220484</v>
+        <v>125.4519795702333</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="D43" t="n">
         <v>34.31465285444516</v>
@@ -7572,7 +7572,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306432</v>
@@ -7602,19 +7602,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>253.6492718586557</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V43" t="n">
-        <v>253.6492718586557</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W43" t="n">
-        <v>253.6492718586557</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X43" t="n">
-        <v>253.6492718586557</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.7298767977416</v>
+        <v>517.3676163717194</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>517.3676163717194</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5458771591282</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7648,25 +7648,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193756</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
@@ -7678,22 +7678,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W44" t="n">
-        <v>1514.742813965704</v>
+        <v>903.5146541681333</v>
       </c>
       <c r="X44" t="n">
-        <v>1514.742813965704</v>
+        <v>903.5146541681333</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.59577616929</v>
+        <v>517.3676163717194</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.9966893088197</v>
+        <v>502.8920230256728</v>
       </c>
       <c r="C45" t="n">
-        <v>150.5844150417834</v>
+        <v>502.8920230256728</v>
       </c>
       <c r="D45" t="n">
-        <v>150.5844150417834</v>
+        <v>502.8920230256728</v>
       </c>
       <c r="E45" t="n">
-        <v>34.31465285444516</v>
+        <v>329.3288191470872</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31465285444516</v>
+        <v>329.3288191470872</v>
       </c>
       <c r="G45" t="n">
-        <v>34.31465285444516</v>
+        <v>179.8597855703271</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>60.36844953854566</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K45" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>317.2197849098233</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M45" t="n">
-        <v>692.1113944628848</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.820066520717</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1476.159517049805</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V45" t="n">
-        <v>1233.079798953439</v>
+        <v>991.7985866786851</v>
       </c>
       <c r="W45" t="n">
-        <v>963.6812296837307</v>
+        <v>722.4000174089764</v>
       </c>
       <c r="X45" t="n">
-        <v>744.1732353004271</v>
+        <v>502.8920230256728</v>
       </c>
       <c r="Y45" t="n">
-        <v>518.5325422357548</v>
+        <v>502.8920230256728</v>
       </c>
     </row>
     <row r="46">
@@ -7791,10 +7791,10 @@
         <v>166.7191087416661</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="G46" t="n">
         <v>34.31465285444516</v>
@@ -7809,7 +7809,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306432</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470653</v>
+        <v>207.3553107283657</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -9005,13 +9005,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454951</v>
       </c>
       <c r="L15" t="n">
-        <v>64.92584373552869</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,16 +9242,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455053</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.6763675213176</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,7 +9482,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,7 +9497,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>122.4388889890787</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>44.67636752131757</v>
@@ -9719,7 +9719,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>226.6888734850222</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>10.68754955674436</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,16 +10190,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,13 +10430,13 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>126.3981812888867</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,16 +10664,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
         <v>310.6138585746227</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,16 +10913,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>277.6646255463473</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315044</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11141,7 +11141,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>102.1412644882575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
         <v>44.67636752131757</v>
@@ -11299,7 +11299,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461154</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>297.9622500471691</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23266,10 +23266,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>149.7103396017497</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>259.1751330403279</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23342,19 +23342,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>67.35722388235961</v>
+        <v>91.30033751191358</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483081</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>171.7556116853855</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>149.7103396017492</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>213.1233271443642</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>184.1882356046049</v>
       </c>
       <c r="D15" t="n">
-        <v>79.41384450535207</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23594,7 +23594,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>101.0407884212465</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23712,7 +23712,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>164.7126956982972</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23721,7 +23721,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>179.1003128982105</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>304.8257678230426</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>79.76201961962853</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.8099579552092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>215.2679301343998</v>
       </c>
       <c r="V19" t="n">
-        <v>236.1927565175929</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
         <v>290.3107070893353</v>
@@ -23971,16 +23971,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>152.5377927076697</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
@@ -23989,7 +23989,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>67.09942898148003</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>155.6500787176566</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>64.19561720753204</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>211.8662302997449</v>
@@ -24107,10 +24107,10 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>240.3106027363868</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>141.5231359220898</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
@@ -24226,7 +24226,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>282.8152131705634</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>204.2193191710255</v>
       </c>
     </row>
     <row r="24">
@@ -24290,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24302,10 +24302,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>88.00084494135886</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>97.29219807573577</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24417,7 +24417,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
@@ -24429,7 +24429,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>145.3842603086282</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24502,16 +24502,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>75.63956120330602</v>
       </c>
       <c r="Y26" t="n">
-        <v>155.3359285844346</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>97.29219807573568</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24539,7 +24539,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>80.84345120350706</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>61.83573736066634</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.0967924155299</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24621,10 +24621,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0023972007068</v>
+        <v>213.775511989721</v>
       </c>
       <c r="U28" t="n">
         <v>288.6213336334641</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24685,19 +24685,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>186.249158434143</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -24733,16 +24733,16 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>42.20808587066117</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24761,16 +24761,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.0921829153883</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>94.23414642525876</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>212.0861385338498</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,10 +24931,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>100.9194185200216</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>188.2064176446102</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24982,10 +24982,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,13 +25004,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>15.17308148995025</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>27.93781665867766</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25080,13 +25080,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>128.2480813810612</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.0550137836253</v>
@@ -25125,7 +25125,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
@@ -25140,7 +25140,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>148.566051909178</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25165,10 +25165,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>201.7772670761534</v>
       </c>
       <c r="G35" t="n">
-        <v>170.5316544787241</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
@@ -25204,25 +25204,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>13.56810506488199</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
@@ -25253,7 +25253,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>143.6258155627995</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>9.44430370175067</v>
+        <v>91.51981868401096</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25365,7 +25365,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>283.8457187955069</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>226.257223379443</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>80.08358030713333</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>55.87112924652399</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>224.1841888012565</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>141.5231359220896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>100.6264384597065</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>362.3173086115054</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.1731929819226</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>68.94636162794831</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>137.9557650397249</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -25842,19 +25842,19 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2250141473115</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>191.8276806051306</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
@@ -25882,7 +25882,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25918,16 +25918,16 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>138.9165333567784</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>56.72050727433479</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>55.05019248624756</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26031,13 +26031,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>10.59572988387626</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0550137836253</v>
+        <v>36.97460245527651</v>
       </c>
       <c r="H46" t="n">
         <v>160.0829940331247</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274156</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>572180.8483274159</v>
+        <v>572180.8483274158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595304.0967441102</v>
+        <v>595304.0967441106</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441103</v>
+        <v>595304.0967441106</v>
       </c>
       <c r="D2" t="n">
         <v>595304.0967441103</v>
       </c>
       <c r="E2" t="n">
-        <v>338123.8689204556</v>
+        <v>338123.8689204557</v>
       </c>
       <c r="F2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="G2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="H2" t="n">
-        <v>338123.8689204555</v>
+        <v>338123.8689204556</v>
       </c>
       <c r="I2" t="n">
-        <v>338123.8689204558</v>
+        <v>338123.8689204557</v>
       </c>
       <c r="J2" t="n">
+        <v>338123.8689204556</v>
+      </c>
+      <c r="K2" t="n">
         <v>338123.8689204557</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>338123.8689204556</v>
       </c>
-      <c r="L2" t="n">
-        <v>338123.868920456</v>
-      </c>
       <c r="M2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204556</v>
       </c>
       <c r="N2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="O2" t="n">
-        <v>338123.8689204558</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="P2" t="n">
-        <v>338123.8689204558</v>
+        <v>338123.8689204559</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.704436726868153e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742393</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>414368.6261668352</v>
       </c>
       <c r="C4" t="n">
-        <v>414368.6261668352</v>
+        <v>414368.6261668353</v>
       </c>
       <c r="D4" t="n">
         <v>414368.6261668352</v>
@@ -26456,10 +26456,10 @@
         <v>34009.01571095565</v>
       </c>
       <c r="O4" t="n">
-        <v>34009.01571095567</v>
+        <v>34009.01571095565</v>
       </c>
       <c r="P4" t="n">
-        <v>34009.01571095566</v>
+        <v>34009.01571095565</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="I5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="I5" t="n">
-        <v>36091.33751189046</v>
-      </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147307.8705772751</v>
+        <v>147263.2067352235</v>
       </c>
       <c r="C6" t="n">
-        <v>147307.8705772752</v>
+        <v>147263.2067352234</v>
       </c>
       <c r="D6" t="n">
-        <v>147307.8705772752</v>
+        <v>147263.2067352232</v>
       </c>
       <c r="E6" t="n">
-        <v>-229029.6361198829</v>
+        <v>-238599.4935850329</v>
       </c>
       <c r="F6" t="n">
-        <v>268023.5156976096</v>
+        <v>258453.6582324594</v>
       </c>
       <c r="G6" t="n">
-        <v>268023.5156976096</v>
+        <v>258453.6582324594</v>
       </c>
       <c r="H6" t="n">
-        <v>268023.5156976094</v>
+        <v>258453.6582324592</v>
       </c>
       <c r="I6" t="n">
-        <v>268023.5156976097</v>
+        <v>258453.6582324594</v>
       </c>
       <c r="J6" t="n">
-        <v>268023.5156976096</v>
+        <v>258453.6582324593</v>
       </c>
       <c r="K6" t="n">
-        <v>268023.5156976095</v>
+        <v>258453.6582324594</v>
       </c>
       <c r="L6" t="n">
-        <v>268023.5156976099</v>
+        <v>258453.6582324592</v>
       </c>
       <c r="M6" t="n">
-        <v>161131.6563233702</v>
+        <v>151561.79885822</v>
       </c>
       <c r="N6" t="n">
-        <v>268023.5156976096</v>
+        <v>258453.6582324594</v>
       </c>
       <c r="O6" t="n">
-        <v>268023.5156976097</v>
+        <v>258453.6582324595</v>
       </c>
       <c r="P6" t="n">
-        <v>268023.5156976097</v>
+        <v>258453.6582324595</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="I4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="I4" t="n">
-        <v>428.9331606805646</v>
-      </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156300219329812e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,22 +31758,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J11" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O11" t="n">
         <v>311.086310257377</v>
@@ -31782,16 +31782,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K12" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L12" t="n">
         <v>214.4945592267021</v>
@@ -31852,28 +31852,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O12" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q12" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
         <v>126.7373929903044</v>
@@ -31937,22 +31937,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P13" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
         <v>324.1998891675596</v>
@@ -32013,10 +32013,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
         <v>199.3831741692328</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32089,10 +32089,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,13 +32101,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
         <v>0.06499178645390431</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,16 +32177,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
         <v>0.0451746187810745</v>
@@ -32232,22 +32232,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O17" t="n">
         <v>311.086310257377</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R17" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K18" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L18" t="n">
         <v>214.4945592267021</v>
@@ -32326,28 +32326,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O18" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q18" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N19" t="n">
         <v>126.7373929903044</v>
@@ -32411,22 +32411,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K11" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L11" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O11" t="n">
         <v>277.1250097811782</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299621</v>
+        <v>252.8135266236212</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
@@ -35503,13 +35503,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
@@ -35661,13 +35661,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405784</v>
       </c>
       <c r="L15" t="n">
-        <v>110.3840596307843</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M16" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P16" t="n">
         <v>19.62327613144092</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L17" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811782</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936593</v>
+        <v>78.8021064040588</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>183.002068966006</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
         <v>407.306832828294</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36217,7 +36217,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>147.6309385189348</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36448,7 +36448,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>323.3818477386936</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36691,10 +36691,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>35.87959908660044</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M30" t="n">
-        <v>183.002068966006</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N30" t="n">
         <v>407.306832828294</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M33" t="n">
-        <v>203.2996934668276</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N33" t="n">
         <v>407.306832828294</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M36" t="n">
-        <v>183.002068966006</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N36" t="n">
         <v>407.306832828294</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37633,16 +37633,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N39" t="n">
-        <v>374.3575998000186</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119725</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37861,7 +37861,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518971</v>
@@ -37876,7 +37876,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P42" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>45.40379396119666</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286321</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046433</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518971</v>
@@ -38107,7 +38107,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N45" t="n">
-        <v>394.6552243008404</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867616</v>
